--- a/biology/Zoologie/Detritivora/Detritivora.xlsx
+++ b/biology/Zoologie/Detritivora/Detritivora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Detritivora est un genre d'insectes lépidoptères américains de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Detritivora leur a été donné par Jason Piers Wilton Hall et Donald J. Harvey (d) en 2002.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 novembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 novembre 2020) :
 Detritivora argyrea (Bates, 1868)
 Detritivora ariquemes (Harvey &amp; Hall, 2002) ; présent au Brésil.
 Detritivora barnesi (Hall &amp; Harvey, 2001) ; présent au Mexique et en Équateur.
@@ -553,10 +569,10 @@
 Detritivora cacaulandia (Harvey &amp; Hall, 2002) ; dans l'ouest de l'Amazonie.
 Detritivora callaghani (Hall &amp; Harvey, 2001) ; présent en Colombie.
 Detritivora caryatis (Hewitson, 1866) ; présent au Brésil.
-Detritivora cleonus (Stoll, [1782]) ; présent en Guyane, en Guyana, au Surinam et au Venezuela.
+Detritivora cleonus (Stoll, ) ; présent en Guyane, en Guyana, au Surinam et au Venezuela.
 Detritivora cuiaba (Harvey &amp; Hall, 2002) ; présent au Brésil.
 Detritivora gallardi (Hall &amp; Harvey, 2001) ; présent en Guyane, en Guyana et au Brésil.
-Detritivora gynaea (Godart, [1824]) ; présent au Brésil.
+Detritivora gynaea (Godart, ) ; présent au Brésil.
 Detritivora hermodora (C. &amp; R. Felder, 1861) ; présent au Costa Rica en Colombie et au Venezuela.
 Detritivora humaita (Harvey &amp; Hall, 2002) ; présent au Brésil.
 Detritivora ipiranga (Harvey &amp; Hall, 2002) ; présent au Venezuela et au Brésil.
